--- a/data/stats/Shaedon Sharpe.xlsx
+++ b/data/stats/Shaedon Sharpe.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +750,56 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>vs Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>G
+114-110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>8-13</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3-8</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>52.4%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
